--- a/biology/Microbiologie/Piriformospora_indica/Piriformospora_indica.xlsx
+++ b/biology/Microbiologie/Piriformospora_indica/Piriformospora_indica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Piriformospora indica est une espèce de champignons de l'ordre des Sebacinales.
-Le champignon interagit en symbiose avec les racines des plantes, notamment celles de certaines plantes cultivées comme le riz[1].
-Il peut également y avoir symbiose entre la plante Aristolochia elegans et P. indica. La mycorhize va augmenter la croissance de la plante et sa production d’acide aristolochique[2].
+Le champignon interagit en symbiose avec les racines des plantes, notamment celles de certaines plantes cultivées comme le riz.
+Il peut également y avoir symbiose entre la plante Aristolochia elegans et P. indica. La mycorhize va augmenter la croissance de la plante et sa production d’acide aristolochique.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>S. Verma, A. Varma, K.H. Rexer, A. Hassel, G. Kost, A. Sarbhoy, P. Bisen, B. Bütehorn, Franken P., « Piriformospora indica, gen. et sp. nov., a new root-colonizing fungus. », Mycologia, vol. 90, no 5,‎ 1998, p. 896–903</t>
         </is>
